--- a/QA/testcases/TestCaseExeSheet.xlsx
+++ b/QA/testcases/TestCaseExeSheet.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="5">
   <si>
     <t>Module Name</t>
   </si>
@@ -25,28 +25,10 @@
     <t>CamSoda</t>
   </si>
   <si>
-    <t>SCENARIO_8</t>
-  </si>
-  <si>
     <t>SCENARIO_1</t>
   </si>
   <si>
     <t>SCENARIO_2</t>
-  </si>
-  <si>
-    <t>SCENARIO_3</t>
-  </si>
-  <si>
-    <t>SCENARIO_4</t>
-  </si>
-  <si>
-    <t>SCENARIO_5</t>
-  </si>
-  <si>
-    <t>SCENARIO_6</t>
-  </si>
-  <si>
-    <t>SCENARIO_7</t>
   </si>
 </sst>
 </file>
@@ -398,10 +380,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B9"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="21.7109375" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -419,7 +401,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
@@ -427,55 +409,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="B5" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="B6" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="B7" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>2</v>
-      </c>
-      <c r="B9" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
     </row>
   </sheetData>
